--- a/Delineation/wwwroot/Excel/tc1.xlsx
+++ b/Delineation/wwwroot/Excel/tc1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\Delineation\Delineation\wwwroot\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\Andrei-Ha\Delineation\Delineation\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3DC7C9-CABD-458E-A5F4-A269D916DD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="368">
   <si>
     <t>Num</t>
   </si>
@@ -110,9 +111,6 @@
     <t>Веренич Михаил Степанович</t>
   </si>
   <si>
-    <t>Электроотопление и горячее водоснабжение жилого дома</t>
-  </si>
-  <si>
     <t>дер. Лемешевичи ул. Северная, 8</t>
   </si>
   <si>
@@ -996,12 +994,147 @@
   </si>
   <si>
     <t>КТП №1285 Л-2</t>
+  </si>
+  <si>
+    <t>«Электроотопление и горячее водоснабжение жилого дома»</t>
+  </si>
+  <si>
+    <t>«Электроотопление, горячее водоснабжение и пищеприготовление в жилом доме»</t>
+  </si>
+  <si>
+    <t>"Электроотопление и ГВС жилого дома"</t>
+  </si>
+  <si>
+    <t>«Электроотопление и горячее водоснабжение, и пищеприготовления жилого дома»</t>
+  </si>
+  <si>
+    <t>"Отопление, ГВС жилого дома и пищеприготовления "</t>
+  </si>
+  <si>
+    <t>"Отопление и ГВС жилого дома"</t>
+  </si>
+  <si>
+    <t>"Электроотопление жилого дома и ГВС"</t>
+  </si>
+  <si>
+    <t>"Отопление жилого дома и ГВС"</t>
+  </si>
+  <si>
+    <t>"Отопление, ГВС жилого дома и пищеприготовления"</t>
+  </si>
+  <si>
+    <t>электроотопление и ГВС жилого дома</t>
+  </si>
+  <si>
+    <t>2/4</t>
+  </si>
+  <si>
+    <t>1/12</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>14а</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1/8</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2/1</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2а</t>
+  </si>
+  <si>
+    <t>14б</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>11б</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1124,7 +1257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1176,6 +1309,18 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1456,27 +1601,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M3" sqref="M3:M73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="24.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="19.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="19.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1558,7 +1703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1575,11 +1720,11 @@
       <c r="F3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="I3" s="8">
         <v>6.2</v>
@@ -1588,38 +1733,38 @@
         <v>3</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="10">
         <v>123456789</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="20">
         <v>2</v>
       </c>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="12">
         <v>54200</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="I4" s="12">
         <v>12.5</v>
@@ -1628,38 +1773,38 @@
         <v>3</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="13">
         <v>123456790</v>
       </c>
-      <c r="M4" s="13">
-        <v>4</v>
+      <c r="M4" s="20">
+        <v>11</v>
       </c>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="D5" s="12">
         <v>54200</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="I5" s="14">
         <v>18</v>
@@ -1668,22 +1813,22 @@
         <v>3</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5" s="13">
         <v>123456791</v>
       </c>
-      <c r="M5" s="13">
-        <v>6</v>
+      <c r="M5" s="20">
+        <v>10</v>
       </c>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="15">
         <v>43567</v>
@@ -1693,13 +1838,13 @@
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="I6" s="14">
         <v>5</v>
@@ -1708,38 +1853,38 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6" s="13">
         <v>123456792</v>
       </c>
-      <c r="M6" s="13">
-        <v>8</v>
+      <c r="M6" s="20">
+        <v>6</v>
       </c>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="D7" s="12">
         <v>54200</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="I7" s="14">
         <v>7.5</v>
@@ -1748,38 +1893,38 @@
         <v>3</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L7" s="13">
         <v>123456793</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="20">
         <v>10</v>
       </c>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="D8" s="12">
         <v>54200</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="I8" s="14">
         <v>14</v>
@@ -1788,38 +1933,38 @@
         <v>3</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" s="13">
         <v>123456794</v>
       </c>
-      <c r="M8" s="13">
-        <v>12</v>
+      <c r="M8" s="20">
+        <v>7</v>
       </c>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="12">
         <v>54200</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="I9" s="12">
         <v>7.5</v>
@@ -1828,22 +1973,22 @@
         <v>3</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="13">
         <v>123456795</v>
       </c>
-      <c r="M9" s="13">
-        <v>14</v>
+      <c r="M9" s="20">
+        <v>7</v>
       </c>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="15">
         <v>43560</v>
@@ -1853,13 +1998,13 @@
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="I10" s="14">
         <v>7</v>
@@ -1868,22 +2013,22 @@
         <v>3</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="13">
         <v>123456796</v>
       </c>
-      <c r="M10" s="13">
-        <v>16</v>
+      <c r="M10" s="20">
+        <v>15</v>
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="15">
         <v>43854</v>
@@ -1893,13 +2038,13 @@
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="I11" s="14">
         <v>10</v>
@@ -1908,22 +2053,22 @@
         <v>3</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11" s="13">
         <v>123456797</v>
       </c>
-      <c r="M11" s="13">
-        <v>18</v>
+      <c r="M11" s="21" t="s">
+        <v>333</v>
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="15">
         <v>43879</v>
@@ -1933,13 +2078,13 @@
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="I12" s="14">
         <v>5</v>
@@ -1948,22 +2093,22 @@
         <v>3</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12" s="13">
         <v>123456798</v>
       </c>
-      <c r="M12" s="13">
-        <v>20</v>
+      <c r="M12" s="21" t="s">
+        <v>334</v>
       </c>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="15">
         <v>43720</v>
@@ -1973,13 +2118,13 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="I13" s="14">
         <v>10</v>
@@ -1988,22 +2133,22 @@
         <v>3</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L13" s="13">
         <v>123456799</v>
       </c>
-      <c r="M13" s="13">
-        <v>22</v>
+      <c r="M13" s="21" t="s">
+        <v>335</v>
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="15">
         <v>43585</v>
@@ -2013,13 +2158,13 @@
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="I14" s="14">
         <v>14</v>
@@ -2028,22 +2173,22 @@
         <v>3</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14" s="13">
         <v>123456800</v>
       </c>
-      <c r="M14" s="13">
-        <v>24</v>
+      <c r="M14" s="21" t="s">
+        <v>335</v>
       </c>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>13</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="15">
         <v>43510</v>
@@ -2053,13 +2198,13 @@
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="I15" s="14">
         <v>7.5</v>
@@ -2068,22 +2213,22 @@
         <v>3</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L15" s="13">
         <v>123456801</v>
       </c>
-      <c r="M15" s="13">
-        <v>26</v>
+      <c r="M15" s="21" t="s">
+        <v>336</v>
       </c>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="15">
         <v>43543</v>
@@ -2093,13 +2238,13 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="I16" s="14">
         <v>8.5</v>
@@ -2108,22 +2253,22 @@
         <v>3</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L16" s="13">
         <v>123456802</v>
       </c>
-      <c r="M16" s="13">
-        <v>28</v>
+      <c r="M16" s="21" t="s">
+        <v>337</v>
       </c>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="15">
         <v>43819</v>
@@ -2133,13 +2278,13 @@
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="I17" s="14">
         <v>9</v>
@@ -2148,22 +2293,22 @@
         <v>3</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L17" s="13">
         <v>123456803</v>
       </c>
-      <c r="M17" s="13">
-        <v>30</v>
+      <c r="M17" s="21" t="s">
+        <v>338</v>
       </c>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="15">
         <v>43854</v>
@@ -2173,13 +2318,13 @@
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="I18" s="14">
         <v>5</v>
@@ -2188,22 +2333,22 @@
         <v>3</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L18" s="13">
         <v>123456804</v>
       </c>
-      <c r="M18" s="13">
-        <v>32</v>
+      <c r="M18" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="15">
         <v>43700</v>
@@ -2213,13 +2358,13 @@
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="I19" s="14">
         <v>8</v>
@@ -2228,22 +2373,22 @@
         <v>3</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L19" s="13">
         <v>123456805</v>
       </c>
-      <c r="M19" s="13">
-        <v>34</v>
+      <c r="M19" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>18</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="15">
         <v>43798</v>
@@ -2253,13 +2398,13 @@
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="I20" s="14">
         <v>8</v>
@@ -2268,22 +2413,22 @@
         <v>3</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L20" s="13">
         <v>123456806</v>
       </c>
-      <c r="M20" s="13">
-        <v>36</v>
+      <c r="M20" s="21" t="s">
+        <v>340</v>
       </c>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>19</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="15">
         <v>43748</v>
@@ -2293,13 +2438,13 @@
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="I21" s="14">
         <v>7.5</v>
@@ -2308,38 +2453,38 @@
         <v>3</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L21" s="13">
         <v>123456807</v>
       </c>
-      <c r="M21" s="13">
-        <v>38</v>
+      <c r="M21" s="21" t="s">
+        <v>338</v>
       </c>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="12">
         <v>54200</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="I22" s="14">
         <v>7.5</v>
@@ -2348,22 +2493,22 @@
         <v>3</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L22" s="13">
         <v>123456808</v>
       </c>
-      <c r="M22" s="13">
-        <v>40</v>
+      <c r="M22" s="21" t="s">
+        <v>341</v>
       </c>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="15">
         <v>43887</v>
@@ -2373,13 +2518,13 @@
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="I23" s="14">
         <v>2.5</v>
@@ -2388,22 +2533,22 @@
         <v>3</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L23" s="13">
         <v>123456809</v>
       </c>
-      <c r="M23" s="13">
-        <v>42</v>
+      <c r="M23" s="20" t="s">
+        <v>338</v>
       </c>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>22</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="15">
         <v>43585</v>
@@ -2413,13 +2558,13 @@
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="I24" s="14">
         <v>7.3</v>
@@ -2428,22 +2573,22 @@
         <v>3</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L24" s="13">
         <v>123456810</v>
       </c>
-      <c r="M24" s="13">
-        <v>44</v>
+      <c r="M24" s="20" t="s">
+        <v>342</v>
       </c>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>23</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="15">
         <v>43675</v>
@@ -2453,13 +2598,13 @@
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="I25" s="14">
         <v>5.2</v>
@@ -2468,22 +2613,22 @@
         <v>3</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L25" s="13">
         <v>123456811</v>
       </c>
-      <c r="M25" s="13">
-        <v>46</v>
+      <c r="M25" s="20" t="s">
+        <v>343</v>
       </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>24</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="15">
         <v>43612</v>
@@ -2493,13 +2638,13 @@
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="I26" s="14">
         <v>4</v>
@@ -2508,38 +2653,38 @@
         <v>3</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L26" s="13">
         <v>123456812</v>
       </c>
-      <c r="M26" s="13">
-        <v>48</v>
+      <c r="M26" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>25</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="12">
         <v>54200</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="I27" s="14">
         <v>10</v>
@@ -2548,22 +2693,22 @@
         <v>3</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L27" s="13">
         <v>123456813</v>
       </c>
-      <c r="M27" s="13">
-        <v>50</v>
+      <c r="M27" s="20" t="s">
+        <v>345</v>
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>26</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="15">
         <v>43719</v>
@@ -2573,13 +2718,13 @@
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="I28" s="14">
         <v>10</v>
@@ -2588,22 +2733,22 @@
         <v>3</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L28" s="13">
         <v>123456814</v>
       </c>
-      <c r="M28" s="13">
-        <v>52</v>
+      <c r="M28" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>27</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="15">
         <v>43634</v>
@@ -2613,13 +2758,13 @@
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="I29" s="14">
         <v>12</v>
@@ -2628,22 +2773,20 @@
         <v>3</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L29" s="13">
         <v>123456815</v>
       </c>
-      <c r="M29" s="13">
-        <v>54</v>
-      </c>
+      <c r="M29" s="20"/>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>28</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" s="15">
         <v>43665</v>
@@ -2653,13 +2796,13 @@
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="I30" s="14">
         <v>19</v>
@@ -2668,38 +2811,38 @@
         <v>3</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L30" s="13">
         <v>123456816</v>
       </c>
-      <c r="M30" s="13">
-        <v>56</v>
+      <c r="M30" s="20" t="s">
+        <v>346</v>
       </c>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>29</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>140</v>
       </c>
       <c r="D31" s="12">
         <v>54200</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="I31" s="14">
         <v>5.5</v>
@@ -2708,38 +2851,38 @@
         <v>3</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L31" s="13">
         <v>123456817</v>
       </c>
-      <c r="M31" s="13">
-        <v>58</v>
+      <c r="M31" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="N31" s="11"/>
     </row>
-    <row r="32" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>30</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="D32" s="12">
         <v>54200</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="I32" s="14">
         <v>6.5</v>
@@ -2748,38 +2891,38 @@
         <v>3</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L32" s="13">
         <v>123456818</v>
       </c>
-      <c r="M32" s="13">
-        <v>60</v>
+      <c r="M32" s="20" t="s">
+        <v>348</v>
       </c>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>31</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="D33" s="12">
         <v>54200</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="I33" s="14">
         <v>5.85</v>
@@ -2788,38 +2931,38 @@
         <v>3</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L33" s="13">
         <v>123456819</v>
       </c>
-      <c r="M33" s="13">
-        <v>62</v>
+      <c r="M33" s="20" t="s">
+        <v>348</v>
       </c>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="D34" s="12">
         <v>54200</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="I34" s="11">
         <v>6</v>
@@ -2828,22 +2971,22 @@
         <v>3</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L34" s="13">
         <v>123456820</v>
       </c>
-      <c r="M34" s="13">
-        <v>64</v>
+      <c r="M34" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>33</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" s="15">
         <v>43559</v>
@@ -2853,13 +2996,13 @@
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="I35" s="14">
         <v>8</v>
@@ -2868,22 +3011,22 @@
         <v>3</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L35" s="13">
         <v>123456821</v>
       </c>
-      <c r="M35" s="13">
-        <v>66</v>
+      <c r="M35" s="20" t="s">
+        <v>350</v>
       </c>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>34</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" s="15">
         <v>43873</v>
@@ -2893,13 +3036,13 @@
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="I36" s="14">
         <v>8</v>
@@ -2908,38 +3051,38 @@
         <v>3</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L36" s="13">
         <v>123456822</v>
       </c>
-      <c r="M36" s="13">
-        <v>68</v>
+      <c r="M36" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="N36" s="11"/>
     </row>
-    <row r="37" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>35</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D37" s="12">
         <v>54200</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="I37" s="14">
         <v>15</v>
@@ -2948,22 +3091,22 @@
         <v>3</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L37" s="13">
         <v>123456823</v>
       </c>
-      <c r="M37" s="13">
-        <v>70</v>
+      <c r="M37" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>36</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" s="15">
         <v>43759</v>
@@ -2973,13 +3116,13 @@
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="I38" s="14">
         <v>15</v>
@@ -2988,38 +3131,38 @@
         <v>3</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L38" s="13">
         <v>123456824</v>
       </c>
-      <c r="M38" s="13">
-        <v>72</v>
+      <c r="M38" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>37</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="D39" s="12">
         <v>54200</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="I39" s="14">
         <v>7.5</v>
@@ -3028,22 +3171,22 @@
         <v>3</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L39" s="13">
         <v>123456825</v>
       </c>
-      <c r="M39" s="13">
-        <v>74</v>
+      <c r="M39" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>38</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C40" s="15">
         <v>43523</v>
@@ -3053,13 +3196,13 @@
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="I40" s="14">
         <v>7.5</v>
@@ -3068,22 +3211,22 @@
         <v>3</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L40" s="13">
         <v>123456826</v>
       </c>
-      <c r="M40" s="13">
-        <v>76</v>
+      <c r="M40" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>39</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C41" s="15">
         <v>43559</v>
@@ -3093,13 +3236,13 @@
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I41" s="14">
         <v>4</v>
@@ -3108,22 +3251,22 @@
         <v>3</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L41" s="13">
         <v>123456827</v>
       </c>
-      <c r="M41" s="13">
-        <v>78</v>
+      <c r="M41" s="20" t="s">
+        <v>340</v>
       </c>
       <c r="N41" s="11"/>
     </row>
-    <row r="42" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>40</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C42" s="15">
         <v>43699</v>
@@ -3133,13 +3276,13 @@
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="I42" s="14">
         <v>7.5</v>
@@ -3148,38 +3291,38 @@
         <v>3</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L42" s="13">
         <v>123456828</v>
       </c>
-      <c r="M42" s="13">
-        <v>80</v>
+      <c r="M42" s="20" t="s">
+        <v>340</v>
       </c>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>41</v>
       </c>
       <c r="B43" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>190</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>191</v>
       </c>
       <c r="D43" s="12">
         <v>54200</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="I43" s="14">
         <v>10</v>
@@ -3188,22 +3331,22 @@
         <v>3</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L43" s="13">
         <v>123456829</v>
       </c>
-      <c r="M43" s="13">
-        <v>82</v>
+      <c r="M43" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="N43" s="11"/>
     </row>
-    <row r="44" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>42</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="15">
         <v>43614</v>
@@ -3213,13 +3356,13 @@
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="H44" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="I44" s="14">
         <v>10</v>
@@ -3228,38 +3371,38 @@
         <v>3</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L44" s="13">
         <v>123456830</v>
       </c>
-      <c r="M44" s="13">
-        <v>84</v>
+      <c r="M44" s="20" t="s">
+        <v>355</v>
       </c>
       <c r="N44" s="11"/>
     </row>
-    <row r="45" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>43</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>200</v>
       </c>
       <c r="D45" s="12">
         <v>54200</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="I45" s="14">
         <v>9.5</v>
@@ -3268,22 +3411,22 @@
         <v>3</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L45" s="13">
         <v>123456831</v>
       </c>
-      <c r="M45" s="13">
-        <v>86</v>
+      <c r="M45" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>44</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C46" s="15">
         <v>43657</v>
@@ -3293,13 +3436,13 @@
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>206</v>
       </c>
       <c r="I46" s="14">
         <v>10</v>
@@ -3308,38 +3451,38 @@
         <v>3</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L46" s="13">
         <v>123456832</v>
       </c>
-      <c r="M46" s="13">
-        <v>88</v>
+      <c r="M46" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>45</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>208</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>209</v>
       </c>
       <c r="D47" s="12">
         <v>54200</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H47" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>211</v>
       </c>
       <c r="I47" s="14">
         <v>10.5</v>
@@ -3348,22 +3491,22 @@
         <v>3</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L47" s="13">
         <v>123456833</v>
       </c>
-      <c r="M47" s="13">
-        <v>90</v>
+      <c r="M47" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>46</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C48" s="15">
         <v>43812</v>
@@ -3373,13 +3516,13 @@
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="I48" s="14">
         <v>14</v>
@@ -3388,38 +3531,38 @@
         <v>3</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L48" s="13">
         <v>123456834</v>
       </c>
-      <c r="M48" s="13">
-        <v>92</v>
+      <c r="M48" s="20" t="s">
+        <v>346</v>
       </c>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="D49" s="12">
         <v>54200</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>219</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>220</v>
       </c>
       <c r="I49" s="12">
         <v>9</v>
@@ -3428,38 +3571,38 @@
         <v>3</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L49" s="13">
         <v>123456835</v>
       </c>
-      <c r="M49" s="13">
-        <v>94</v>
+      <c r="M49" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>223</v>
       </c>
       <c r="D50" s="12">
         <v>54200</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="I50" s="12">
         <v>10</v>
@@ -3468,22 +3611,22 @@
         <v>3</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L50" s="13">
         <v>123456836</v>
       </c>
-      <c r="M50" s="13">
-        <v>96</v>
+      <c r="M50" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>49</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C51" s="15">
         <v>43560</v>
@@ -3493,13 +3636,13 @@
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="I51" s="14">
         <v>5.5</v>
@@ -3508,38 +3651,38 @@
         <v>3</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L51" s="13">
         <v>123456837</v>
       </c>
-      <c r="M51" s="13">
-        <v>98</v>
+      <c r="M51" s="20" t="s">
+        <v>359</v>
       </c>
       <c r="N51" s="11"/>
     </row>
-    <row r="52" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>50</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>231</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>232</v>
       </c>
       <c r="D52" s="12">
         <v>54200</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="I52" s="14">
         <v>15</v>
@@ -3548,38 +3691,38 @@
         <v>3</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L52" s="13">
         <v>123456838</v>
       </c>
-      <c r="M52" s="13">
-        <v>100</v>
+      <c r="M52" s="20" t="s">
+        <v>340</v>
       </c>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>51</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>236</v>
       </c>
       <c r="D53" s="12">
         <v>54200</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>237</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="I53" s="14">
         <v>7</v>
@@ -3588,22 +3731,22 @@
         <v>3</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L53" s="13">
         <v>123456839</v>
       </c>
-      <c r="M53" s="13">
-        <v>102</v>
+      <c r="M53" s="20">
+        <v>5</v>
       </c>
       <c r="N53" s="11"/>
     </row>
-    <row r="54" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>52</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C54" s="15">
         <v>43845</v>
@@ -3613,13 +3756,13 @@
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H54" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="I54" s="14">
         <v>8</v>
@@ -3628,22 +3771,22 @@
         <v>3</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L54" s="13">
         <v>123456840</v>
       </c>
-      <c r="M54" s="13">
-        <v>104</v>
+      <c r="M54" s="20" t="s">
+        <v>342</v>
       </c>
       <c r="N54" s="11"/>
     </row>
-    <row r="55" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C55" s="17">
         <v>43854</v>
@@ -3653,13 +3796,13 @@
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="H55" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="I55" s="12">
         <v>10</v>
@@ -3668,22 +3811,22 @@
         <v>3</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L55" s="13">
         <v>123456841</v>
       </c>
-      <c r="M55" s="13">
-        <v>106</v>
+      <c r="M55" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>54</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C56" s="15">
         <v>43698</v>
@@ -3693,13 +3836,13 @@
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H56" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="I56" s="14">
         <v>8.5</v>
@@ -3708,38 +3851,38 @@
         <v>3</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L56" s="13">
         <v>123456842</v>
       </c>
-      <c r="M56" s="13">
-        <v>108</v>
+      <c r="M56" s="20" t="s">
+        <v>334</v>
       </c>
       <c r="N56" s="11"/>
     </row>
-    <row r="57" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>55</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>252</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>253</v>
       </c>
       <c r="D57" s="12">
         <v>54200</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="H57" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="I57" s="14">
         <v>2</v>
@@ -3748,38 +3891,38 @@
         <v>3</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L57" s="13">
         <v>123456843</v>
       </c>
-      <c r="M57" s="13">
-        <v>110</v>
+      <c r="M57" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="N57" s="11"/>
     </row>
-    <row r="58" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>56</v>
       </c>
       <c r="B58" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>257</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>258</v>
       </c>
       <c r="D58" s="12">
         <v>54200</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H58" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="I58" s="14">
         <v>6</v>
@@ -3788,38 +3931,38 @@
         <v>3</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L58" s="13">
         <v>123456844</v>
       </c>
-      <c r="M58" s="13">
-        <v>112</v>
+      <c r="M58" s="20" t="s">
+        <v>338</v>
       </c>
       <c r="N58" s="11"/>
     </row>
-    <row r="59" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>57</v>
       </c>
       <c r="B59" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>262</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>263</v>
       </c>
       <c r="D59" s="12">
         <v>54200</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H59" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>265</v>
       </c>
       <c r="I59" s="14">
         <v>6.5</v>
@@ -3828,38 +3971,38 @@
         <v>3</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L59" s="13">
         <v>123456845</v>
       </c>
-      <c r="M59" s="13">
-        <v>114</v>
+      <c r="M59" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="N59" s="11"/>
     </row>
-    <row r="60" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>58</v>
       </c>
       <c r="B60" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>267</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>268</v>
       </c>
       <c r="D60" s="12">
         <v>54200</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>269</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>270</v>
       </c>
       <c r="I60" s="14">
         <v>10</v>
@@ -3868,38 +4011,38 @@
         <v>3</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L60" s="13">
         <v>123456846</v>
       </c>
-      <c r="M60" s="13">
-        <v>116</v>
+      <c r="M60" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="N60" s="11"/>
     </row>
-    <row r="61" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>59</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D61" s="12">
         <v>54200</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="H61" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="I61" s="14">
         <v>8</v>
@@ -3908,22 +4051,22 @@
         <v>3</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L61" s="13">
         <v>123456847</v>
       </c>
-      <c r="M61" s="13">
-        <v>118</v>
+      <c r="M61" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="N61" s="11"/>
     </row>
-    <row r="62" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>60</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C62" s="15">
         <v>43510</v>
@@ -3933,13 +4076,13 @@
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="I62" s="14">
         <v>7.5</v>
@@ -3948,22 +4091,22 @@
         <v>3</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L62" s="13">
         <v>123456848</v>
       </c>
-      <c r="M62" s="13">
-        <v>120</v>
+      <c r="M62" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="N62" s="11"/>
     </row>
-    <row r="63" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>61</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C63" s="15">
         <v>43874</v>
@@ -3973,13 +4116,13 @@
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>281</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>282</v>
       </c>
       <c r="I63" s="14">
         <v>8</v>
@@ -3988,38 +4131,38 @@
         <v>3</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L63" s="13">
         <v>123456849</v>
       </c>
-      <c r="M63" s="13">
-        <v>122</v>
+      <c r="M63" s="20" t="s">
+        <v>338</v>
       </c>
       <c r="N63" s="11"/>
     </row>
-    <row r="64" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>62</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D64" s="12">
         <v>54200</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H64" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>286</v>
       </c>
       <c r="I64" s="14">
         <v>6</v>
@@ -4028,22 +4171,22 @@
         <v>3</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L64" s="13">
         <v>123456850</v>
       </c>
-      <c r="M64" s="13">
-        <v>124</v>
+      <c r="M64" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="N64" s="11"/>
     </row>
-    <row r="65" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>63</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C65" s="15">
         <v>43812</v>
@@ -4053,13 +4196,13 @@
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H65" s="12" t="s">
         <v>289</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>290</v>
       </c>
       <c r="I65" s="14">
         <v>12.2</v>
@@ -4068,22 +4211,22 @@
         <v>3</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L65" s="13">
         <v>123456851</v>
       </c>
-      <c r="M65" s="13">
-        <v>126</v>
+      <c r="M65" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="N65" s="11"/>
     </row>
-    <row r="66" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>64</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C66" s="15">
         <v>43810</v>
@@ -4093,13 +4236,13 @@
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H66" s="12" t="s">
         <v>293</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>294</v>
       </c>
       <c r="I66" s="14">
         <v>10</v>
@@ -4108,38 +4251,38 @@
         <v>3</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L66" s="13">
         <v>123456852</v>
       </c>
-      <c r="M66" s="13">
-        <v>128</v>
+      <c r="M66" s="20" t="s">
+        <v>337</v>
       </c>
       <c r="N66" s="11"/>
     </row>
-    <row r="67" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>65</v>
       </c>
       <c r="B67" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>296</v>
       </c>
       <c r="D67" s="12">
         <v>54200</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H67" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="I67" s="14">
         <v>10</v>
@@ -4148,38 +4291,38 @@
         <v>3</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L67" s="13">
         <v>123456853</v>
       </c>
-      <c r="M67" s="13">
-        <v>130</v>
+      <c r="M67" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="N67" s="11"/>
     </row>
-    <row r="68" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>66</v>
       </c>
       <c r="B68" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>300</v>
       </c>
       <c r="D68" s="12">
         <v>54200</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H68" s="12" t="s">
         <v>301</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>302</v>
       </c>
       <c r="I68" s="14">
         <v>12.2</v>
@@ -4188,22 +4331,22 @@
         <v>3</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L68" s="13">
         <v>123456854</v>
       </c>
-      <c r="M68" s="13">
-        <v>132</v>
+      <c r="M68" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="N68" s="11"/>
     </row>
-    <row r="69" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>67</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C69" s="15">
         <v>43685</v>
@@ -4213,13 +4356,13 @@
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H69" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="I69" s="14">
         <v>10</v>
@@ -4228,38 +4371,38 @@
         <v>3</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L69" s="13">
         <v>123456855</v>
       </c>
-      <c r="M69" s="13">
-        <v>134</v>
+      <c r="M69" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="N69" s="11"/>
     </row>
-    <row r="70" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>68</v>
       </c>
       <c r="B70" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C70" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>309</v>
       </c>
       <c r="D70" s="12">
         <v>54200</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>28</v>
+        <v>304</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>328</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I70" s="14">
         <v>7.5</v>
@@ -4268,38 +4411,38 @@
         <v>3</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L70" s="13">
         <v>123456856</v>
       </c>
-      <c r="M70" s="13">
-        <v>136</v>
+      <c r="M70" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="N70" s="11"/>
     </row>
-    <row r="71" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>69</v>
       </c>
       <c r="B71" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>312</v>
       </c>
       <c r="D71" s="12">
         <v>54200</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="H71" s="12" t="s">
         <v>313</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>314</v>
       </c>
       <c r="I71" s="14">
         <v>4</v>
@@ -4308,22 +4451,22 @@
         <v>3</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L71" s="13">
         <v>123456857</v>
       </c>
-      <c r="M71" s="13">
-        <v>138</v>
+      <c r="M71" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="N71" s="11"/>
     </row>
-    <row r="72" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>70</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C72" s="15">
         <v>43509</v>
@@ -4333,13 +4476,13 @@
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="H72" s="12" t="s">
         <v>317</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>318</v>
       </c>
       <c r="I72" s="14">
         <v>6</v>
@@ -4348,38 +4491,38 @@
         <v>3</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L72" s="13">
         <v>123456858</v>
       </c>
-      <c r="M72" s="13">
-        <v>140</v>
+      <c r="M72" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="N72" s="11"/>
     </row>
-    <row r="73" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>71</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D73" s="12">
         <v>54200</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H73" s="12" t="s">
         <v>321</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>322</v>
       </c>
       <c r="I73" s="14">
         <v>5.25</v>
@@ -4388,13 +4531,13 @@
         <v>3</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L73" s="13">
         <v>123456859</v>
       </c>
-      <c r="M73" s="13">
-        <v>142</v>
+      <c r="M73" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="N73" s="11"/>
     </row>
